--- a/total modeles python plus.xlsx
+++ b/total modeles python plus.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:Q167"/>
+  <dimension ref="A1:Q291"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -421,4661 +421,6290 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>2020-300 - Calcul cable P1-3-7-11-15-17.xlsm</t>
+        </is>
+      </c>
+    </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2020-300 - Calcul cable P1-3-7-11-15-17.xlsm</t>
+          <t>Circuit</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Lampe 1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Circuit</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Lampe 1</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Circuit</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Lampe 1</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Circuit</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Lampe 1</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Circuit</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Lampe 1</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Circuit</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Lampe 1</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Circuit</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Lampe 1</t>
-        </is>
+          <t>A+6</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>38398</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Circuit</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Lampe 1</t>
-        </is>
+          <t>B+6</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>40198</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Circuit</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Lampe 1</t>
-        </is>
+          <t>C+6</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>34809</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Circuit</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Lampe 1</t>
-        </is>
+          <t>D+6</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>34896</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Circuit</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>Lampe 1</t>
-        </is>
+          <t>E+6</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
+        <v>40296</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Circuit</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>Lampe 1</t>
-        </is>
+          <t>F+6</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v>38496</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A+6</t>
+          <t>A+5</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38398</v>
+        <v>33898</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>B+6</t>
+          <t>B+5</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>40198</v>
+        <v>35698</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>C+6</t>
+          <t>C+5</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>34809</v>
+        <v>30309</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>D+6</t>
+          <t>D+5</t>
         </is>
       </c>
       <c r="K4" t="n">
-        <v>34896</v>
+        <v>30396</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>E+6</t>
+          <t>E+5</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>38496</v>
+        <v>35796</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>F+6</t>
+          <t>F+5</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>40296</v>
+        <v>33996</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A+5</t>
+          <t>A+4</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>33898</v>
+        <v>29398</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>B+5</t>
+          <t>B+4</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>35698</v>
+        <v>31198</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>C+5</t>
+          <t>C+4</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>30309</v>
+        <v>25809</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>D+5</t>
+          <t>D+4</t>
         </is>
       </c>
       <c r="K5" t="n">
-        <v>30396</v>
+        <v>25896</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>E+5</t>
+          <t>E+4</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>33996</v>
+        <v>31296</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>F+5</t>
+          <t>F+4</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>35796</v>
+        <v>29496</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A+4</t>
+          <t>A+3</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>29398</v>
+        <v>24898</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>B+4</t>
+          <t>B+3</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>31198</v>
+        <v>26698</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>C+4</t>
+          <t>C+3</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>25809</v>
+        <v>21309</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>D+4</t>
+          <t>D+3</t>
         </is>
       </c>
       <c r="K6" t="n">
-        <v>25896</v>
+        <v>21396</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>E+4</t>
+          <t>E+3</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>29496</v>
+        <v>26796</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>F+4</t>
+          <t>F+3</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>31296</v>
+        <v>24996</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A+3</t>
+          <t>A+2</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24898</v>
+        <v>20398</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>B+3</t>
+          <t>B+2</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>26698</v>
+        <v>22198</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>C+3</t>
+          <t>C+2</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>21309</v>
+        <v>16809</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>D+3</t>
+          <t>D+2</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>21396</v>
+        <v>16896</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>E+3</t>
+          <t>E+2</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>24996</v>
+        <v>22296</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>F+3</t>
+          <t>F+2</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>26796</v>
+        <v>20496</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A+2</t>
+          <t>A+1</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20398</v>
+        <v>15898</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>B+2</t>
+          <t>B+1</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>22198</v>
+        <v>17698</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>C+2</t>
+          <t>C+1</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>16809</v>
+        <v>12309</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>D+2</t>
+          <t>D+1</t>
         </is>
       </c>
       <c r="K8" t="n">
-        <v>16896</v>
+        <v>12396</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>E+2</t>
+          <t>E+1</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>20496</v>
+        <v>17796</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>F+2</t>
+          <t>F+1</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>22296</v>
+        <v>15996</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A+1</t>
+          <t>A+0</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15898</v>
+        <v>11398</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>B+1</t>
+          <t>B+0</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>17698</v>
+        <v>13198</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>C+1</t>
+          <t>C+0</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>12309</v>
+        <v>7809</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>D+1</t>
+          <t>D+0</t>
         </is>
       </c>
       <c r="K9" t="n">
-        <v>12396</v>
+        <v>7896</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>E+1</t>
+          <t>E+0</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>15996</v>
+        <v>13296</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>F+1</t>
+          <t>F+0</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>17796</v>
+        <v>11496</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A+0</t>
+          <t>A+1</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11398</v>
+        <v>15898</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>B+0</t>
+          <t>B+1</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>13198</v>
+        <v>17698</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>C+0</t>
+          <t>C+1</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>7809</v>
+        <v>12309</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>D+0</t>
+          <t>D+1</t>
         </is>
       </c>
       <c r="K10" t="n">
-        <v>7896</v>
+        <v>12396</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>E+0</t>
+          <t>E+1</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>11496</v>
+        <v>17796</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>F+0</t>
+          <t>F+1</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>13296</v>
+        <v>15996</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A+1</t>
+          <t>A+2</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>15898</v>
+        <v>20398</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>B+1</t>
+          <t>B+2</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>17698</v>
+        <v>22198</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>C+1</t>
+          <t>C+2</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>12309</v>
+        <v>16809</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>D+1</t>
+          <t>D+2</t>
         </is>
       </c>
       <c r="K11" t="n">
-        <v>12396</v>
+        <v>16896</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>E+1</t>
+          <t>E+2</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>15996</v>
+        <v>22296</v>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>F+1</t>
+          <t>F+2</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>17796</v>
+        <v>20496</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A+2</t>
+          <t>A+3</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>20398</v>
+        <v>24898</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>B+2</t>
+          <t>B+3</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>22198</v>
+        <v>26698</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>C+2</t>
+          <t>C+3</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>16809</v>
+        <v>21309</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>D+2</t>
+          <t>D+3</t>
         </is>
       </c>
       <c r="K12" t="n">
-        <v>16896</v>
+        <v>21396</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>E+2</t>
+          <t>E+3</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>20496</v>
+        <v>26796</v>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>F+2</t>
+          <t>F+3</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>22296</v>
+        <v>24996</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A+3</t>
+          <t>A+4</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>24898</v>
+        <v>29398</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>B+3</t>
+          <t>B+4</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>26698</v>
+        <v>31198</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>C+3</t>
+          <t>C+4</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>21309</v>
+        <v>25809</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>D+3</t>
+          <t>D+4</t>
         </is>
       </c>
       <c r="K13" t="n">
-        <v>21396</v>
+        <v>25896</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>E+3</t>
+          <t>E+4</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>24996</v>
+        <v>31296</v>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>F+3</t>
+          <t>F+4</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>26796</v>
+        <v>29496</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A+4</t>
+          <t>A+5</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>29398</v>
+        <v>33898</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>B+4</t>
+          <t>B+5</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>31198</v>
+        <v>35698</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>C+4</t>
+          <t>C+5</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>25809</v>
+        <v>30309</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>D+4</t>
+          <t>D+5</t>
         </is>
       </c>
       <c r="K14" t="n">
-        <v>25896</v>
+        <v>30396</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>E+4</t>
+          <t>E+5</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>29496</v>
+        <v>35796</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>F+4</t>
+          <t>F+5</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>31296</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>A+5</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>33898</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>B+5</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>35698</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>C+5</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>30309</v>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>D+5</t>
-        </is>
-      </c>
-      <c r="K15" t="n">
-        <v>30396</v>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>E+5</t>
-        </is>
-      </c>
-      <c r="N15" t="n">
         <v>33996</v>
       </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>F+5</t>
-        </is>
-      </c>
-      <c r="Q15" t="n">
-        <v>35796</v>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2020-300 - Calcul cable P13.xlsm</t>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2020-300 - Calcul cable P13.xlsm</t>
+          <t>Circuit</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Lampe 1</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Circuit</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Lampe 1</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Circuit</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Lampe 1</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Circuit</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Lampe 1</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>Circuit</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Lampe 1</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Circuit</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>Lampe 1</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Circuit</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Lampe 1</t>
-        </is>
+          <t>A+6</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>38398</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Circuit</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Lampe 1</t>
-        </is>
+          <t>B+6</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>40198</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Circuit</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Lampe 1</t>
-        </is>
+          <t>M+6</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>34783</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Circuit</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>Lampe 1</t>
-        </is>
+          <t>N+6</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>34918</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>Circuit</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>Lampe 1</t>
-        </is>
+          <t>O+6</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
+        <v>45718</v>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Circuit</t>
-        </is>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>Lampe 1</t>
-        </is>
+          <t>P+6</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>43918</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A+6</t>
+          <t>A+5</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>38398</v>
+        <v>33898</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>B+6</t>
+          <t>B+5</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>40198</v>
+        <v>35698</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>M+6</t>
+          <t>M+5</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>34783</v>
+        <v>30283</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>N+6</t>
+          <t>N+5</t>
         </is>
       </c>
       <c r="K21" t="n">
-        <v>34918</v>
+        <v>30418</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>O+6</t>
+          <t>O+5</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>45718</v>
+        <v>41218</v>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>P+6</t>
+          <t>P+5</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>43918</v>
+        <v>39418</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A+5</t>
+          <t>A+4</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>33898</v>
+        <v>29398</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>B+5</t>
+          <t>B+4</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>35698</v>
+        <v>31198</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>M+5</t>
+          <t>M+4</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>30283</v>
+        <v>25783</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>N+5</t>
+          <t>N+4</t>
         </is>
       </c>
       <c r="K22" t="n">
-        <v>30418</v>
+        <v>25918</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>O+5</t>
+          <t>O+4</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>41218</v>
+        <v>36718</v>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>P+5</t>
+          <t>P+4</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>39418</v>
+        <v>34918</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A+4</t>
+          <t>A+3</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>29398</v>
+        <v>24898</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>B+4</t>
+          <t>B+3</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>31198</v>
+        <v>26698</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>M+4</t>
+          <t>M+3</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>25783</v>
+        <v>21283</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>N+4</t>
+          <t>N+3</t>
         </is>
       </c>
       <c r="K23" t="n">
-        <v>25918</v>
+        <v>21418</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>O+4</t>
+          <t>O+3</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>36718</v>
+        <v>32218</v>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>P+4</t>
+          <t>P+3</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>34918</v>
+        <v>30418</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A+3</t>
+          <t>A+2</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>24898</v>
+        <v>20398</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>B+3</t>
+          <t>B+2</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>26698</v>
+        <v>22198</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>M+3</t>
+          <t>M+2</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>21283</v>
+        <v>16783</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>N+3</t>
+          <t>N+2</t>
         </is>
       </c>
       <c r="K24" t="n">
-        <v>21418</v>
+        <v>16918</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>O+3</t>
+          <t>O+2</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>32218</v>
+        <v>27718</v>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>P+3</t>
+          <t>P+2</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>30418</v>
+        <v>25918</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A+2</t>
+          <t>A+1</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>20398</v>
+        <v>15898</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>B+2</t>
+          <t>B+1</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>22198</v>
+        <v>17698</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>M+2</t>
+          <t>M+1</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>16783</v>
+        <v>12283</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>N+2</t>
+          <t>N+1</t>
         </is>
       </c>
       <c r="K25" t="n">
-        <v>16918</v>
+        <v>12418</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>O+2</t>
+          <t>O+1</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>27718</v>
+        <v>23218</v>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>P+2</t>
+          <t>P+1</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>25918</v>
+        <v>21418</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A+1</t>
+          <t>A+0</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>15898</v>
+        <v>11398</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>B+1</t>
+          <t>B+0</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>17698</v>
+        <v>13198</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>M+1</t>
+          <t>M+0</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>12283</v>
+        <v>7783</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>N+1</t>
+          <t>N+0</t>
         </is>
       </c>
       <c r="K26" t="n">
-        <v>12418</v>
+        <v>7918</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>O+1</t>
+          <t>O+0</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>23218</v>
+        <v>18718</v>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>P+1</t>
+          <t>P+0</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>21418</v>
+        <v>16918</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A+0</t>
+          <t>A+1</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>11398</v>
+        <v>15898</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>B+0</t>
+          <t>B+1</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>13198</v>
+        <v>17698</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>M+0</t>
+          <t>M+1</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>7783</v>
+        <v>12283</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>N+0</t>
+          <t>N+1</t>
         </is>
       </c>
       <c r="K27" t="n">
-        <v>7918</v>
+        <v>12418</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>O+0</t>
+          <t>O+1</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>18718</v>
+        <v>23218</v>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>P+0</t>
+          <t>P+1</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>16918</v>
+        <v>21418</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A+1</t>
+          <t>A+2</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>15898</v>
+        <v>20398</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>B+1</t>
+          <t>B+2</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>17698</v>
+        <v>22198</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>M+1</t>
+          <t>M+2</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>12283</v>
+        <v>16783</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>N+1</t>
+          <t>N+2</t>
         </is>
       </c>
       <c r="K28" t="n">
-        <v>12418</v>
+        <v>16918</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>O+1</t>
+          <t>O+2</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>23218</v>
+        <v>27718</v>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>P+1</t>
+          <t>P+2</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>21418</v>
+        <v>25918</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A+2</t>
+          <t>A+3</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>20398</v>
+        <v>24898</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>B+2</t>
+          <t>B+3</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>22198</v>
+        <v>26698</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>M+2</t>
+          <t>M+3</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>16783</v>
+        <v>21283</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>N+2</t>
+          <t>N+3</t>
         </is>
       </c>
       <c r="K29" t="n">
-        <v>16918</v>
+        <v>21418</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>O+2</t>
+          <t>O+3</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>27718</v>
+        <v>32218</v>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>P+2</t>
+          <t>P+3</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>25918</v>
+        <v>30418</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A+3</t>
+          <t>A+4</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>24898</v>
+        <v>29398</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>B+3</t>
+          <t>B+4</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>26698</v>
+        <v>31198</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>M+3</t>
+          <t>M+4</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>21283</v>
+        <v>25783</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>N+3</t>
+          <t>N+4</t>
         </is>
       </c>
       <c r="K30" t="n">
-        <v>21418</v>
+        <v>25918</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>O+3</t>
+          <t>O+4</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>32218</v>
+        <v>36718</v>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>P+3</t>
+          <t>P+4</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>30418</v>
+        <v>34918</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A+4</t>
+          <t>A+5</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>29398</v>
+        <v>33898</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>B+4</t>
+          <t>B+5</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>31198</v>
+        <v>35698</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>M+4</t>
+          <t>M+5</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>25783</v>
+        <v>30283</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>N+4</t>
+          <t>N+5</t>
         </is>
       </c>
       <c r="K31" t="n">
-        <v>25918</v>
+        <v>30418</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>O+4</t>
+          <t>O+5</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>36718</v>
+        <v>41218</v>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>P+4</t>
+          <t>P+5</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>34918</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>A+5</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>33898</v>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>B+5</t>
-        </is>
-      </c>
-      <c r="E32" t="n">
-        <v>35698</v>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>M+5</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>30283</v>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>N+5</t>
-        </is>
-      </c>
-      <c r="K32" t="n">
-        <v>30418</v>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>O+5</t>
-        </is>
-      </c>
-      <c r="N32" t="n">
-        <v>41218</v>
-      </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>P+5</t>
-        </is>
-      </c>
-      <c r="Q32" t="n">
         <v>39418</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2020-300 - Calcul cable P14.xlsm</t>
+        </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2020-300 - Calcul cable P14.xlsm</t>
+          <t>Circuit</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Lampe 1</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Circuit</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Lampe 1</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Circuit</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Lampe 1</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Circuit</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Lampe 1</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>Circuit</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>Lampe 1</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Circuit</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>Lampe 1</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Circuit</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Lampe 1</t>
-        </is>
+          <t>A+6</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>38398</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Circuit</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Lampe 1</t>
-        </is>
+          <t>B+6</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>40198</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Circuit</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>Lampe 1</t>
-        </is>
+          <t>M+6</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>34783</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Circuit</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>Lampe 1</t>
-        </is>
+          <t>N+6</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>34918</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>Circuit</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>Lampe 1</t>
-        </is>
+          <t>O+6</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
+        <v>45718</v>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Circuit</t>
-        </is>
-      </c>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>Lampe 1</t>
-        </is>
+          <t>P+6</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>43918</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A+6</t>
+          <t>A+5</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>38398</v>
+        <v>33898</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>B+6</t>
+          <t>B+5</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>40198</v>
+        <v>35698</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>M+6</t>
+          <t>M+5</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>34783</v>
+        <v>30283</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>N+6</t>
+          <t>N+5</t>
         </is>
       </c>
       <c r="K38" t="n">
-        <v>34918</v>
+        <v>30418</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>O+6</t>
+          <t>O+5</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>45718</v>
+        <v>41218</v>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>P+6</t>
+          <t>P+5</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>43918</v>
+        <v>39418</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A+5</t>
+          <t>A+4</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>33898</v>
+        <v>29398</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>B+5</t>
+          <t>B+4</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>35698</v>
+        <v>31198</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>M+5</t>
+          <t>M+4</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>30283</v>
+        <v>25783</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>N+5</t>
+          <t>N+4</t>
         </is>
       </c>
       <c r="K39" t="n">
-        <v>30418</v>
+        <v>25918</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>O+5</t>
+          <t>O+4</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>41218</v>
+        <v>36718</v>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>P+5</t>
+          <t>P+4</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>39418</v>
+        <v>34918</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A+4</t>
+          <t>A+3</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29398</v>
+        <v>24898</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>B+4</t>
+          <t>B+3</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>31198</v>
+        <v>26698</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>M+4</t>
+          <t>M+3</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>25783</v>
+        <v>21283</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>N+4</t>
+          <t>N+3</t>
         </is>
       </c>
       <c r="K40" t="n">
-        <v>25918</v>
+        <v>21418</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>O+4</t>
+          <t>O+3</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>36718</v>
+        <v>32218</v>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>P+4</t>
+          <t>P+3</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>34918</v>
+        <v>30418</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A+3</t>
+          <t>A+2</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>24898</v>
+        <v>20398</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>B+3</t>
+          <t>B+2</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>26698</v>
+        <v>22198</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>M+3</t>
+          <t>M+2</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>21283</v>
+        <v>16783</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>N+3</t>
+          <t>N+2</t>
         </is>
       </c>
       <c r="K41" t="n">
-        <v>21418</v>
+        <v>16918</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>O+3</t>
+          <t>O+2</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>32218</v>
+        <v>27718</v>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>P+3</t>
+          <t>P+2</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>30418</v>
+        <v>25918</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A+2</t>
+          <t>A+1</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>20398</v>
+        <v>15898</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>B+2</t>
+          <t>B+1</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>22198</v>
+        <v>17698</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>M+2</t>
+          <t>M+1</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>16783</v>
+        <v>12283</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>N+2</t>
+          <t>N+1</t>
         </is>
       </c>
       <c r="K42" t="n">
-        <v>16918</v>
+        <v>12418</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>O+2</t>
+          <t>O+1</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>27718</v>
+        <v>23218</v>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>P+2</t>
+          <t>P+1</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>25918</v>
+        <v>21418</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A+1</t>
+          <t>A+0</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>15898</v>
+        <v>11398</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>B+1</t>
+          <t>B+0</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>17698</v>
+        <v>13198</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>M+1</t>
+          <t>M+0</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>12283</v>
+        <v>7783</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>N+1</t>
+          <t>N+0</t>
         </is>
       </c>
       <c r="K43" t="n">
-        <v>12418</v>
+        <v>7918</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>O+1</t>
+          <t>O+0</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>23218</v>
+        <v>18718</v>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>P+1</t>
+          <t>P+0</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>21418</v>
+        <v>16918</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A+0</t>
+          <t>A+1</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>11398</v>
+        <v>15898</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>B+0</t>
+          <t>B+1</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>13198</v>
+        <v>17698</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>M+0</t>
+          <t>M+1</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>7783</v>
+        <v>12283</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>N+0</t>
+          <t>N+1</t>
         </is>
       </c>
       <c r="K44" t="n">
-        <v>7918</v>
+        <v>12418</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>O+0</t>
+          <t>O+1</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>18718</v>
+        <v>23218</v>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>P+0</t>
+          <t>P+1</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>16918</v>
+        <v>21418</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A+1</t>
+          <t>A+2</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>15898</v>
+        <v>20398</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>B+1</t>
+          <t>B+2</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>17698</v>
+        <v>22198</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>M+1</t>
+          <t>M+2</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>12283</v>
+        <v>16783</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>N+1</t>
+          <t>N+2</t>
         </is>
       </c>
       <c r="K45" t="n">
-        <v>12418</v>
+        <v>16918</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>O+1</t>
+          <t>O+2</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>23218</v>
+        <v>27718</v>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>P+1</t>
+          <t>P+2</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>21418</v>
+        <v>25918</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A+2</t>
+          <t>A+3</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>20398</v>
+        <v>24898</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>B+2</t>
+          <t>B+3</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>22198</v>
+        <v>26698</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>M+2</t>
+          <t>M+3</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>16783</v>
+        <v>21283</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>N+2</t>
+          <t>N+3</t>
         </is>
       </c>
       <c r="K46" t="n">
-        <v>16918</v>
+        <v>21418</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>O+2</t>
+          <t>O+3</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>27718</v>
+        <v>32218</v>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>P+2</t>
+          <t>P+3</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>25918</v>
+        <v>30418</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A+3</t>
+          <t>A+4</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>24898</v>
+        <v>29398</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>B+3</t>
+          <t>B+4</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>26698</v>
+        <v>31198</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>M+3</t>
+          <t>M+4</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>21283</v>
+        <v>25783</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>N+3</t>
+          <t>N+4</t>
         </is>
       </c>
       <c r="K47" t="n">
-        <v>21418</v>
+        <v>25918</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>O+3</t>
+          <t>O+4</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>32218</v>
+        <v>36718</v>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>P+3</t>
+          <t>P+4</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>30418</v>
+        <v>34918</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A+4</t>
+          <t>A+5</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>29398</v>
+        <v>33898</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>B+4</t>
+          <t>B+5</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>31198</v>
+        <v>35698</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>M+4</t>
+          <t>M+5</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>25783</v>
+        <v>30283</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>N+4</t>
+          <t>N+5</t>
         </is>
       </c>
       <c r="K48" t="n">
-        <v>25918</v>
+        <v>30418</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>O+4</t>
+          <t>O+5</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>36718</v>
+        <v>41218</v>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>P+4</t>
+          <t>P+5</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>34918</v>
+        <v>39418</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A+5</t>
+          <t>A+6</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>33898</v>
+        <v>38398</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>B+5</t>
+          <t>B+6</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>35698</v>
+        <v>40198</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>M+5</t>
+          <t>M+6</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>30283</v>
+        <v>34783</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>N+5</t>
+          <t>N+6</t>
         </is>
       </c>
       <c r="K49" t="n">
-        <v>30418</v>
+        <v>34918</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>O+5</t>
+          <t>O+6</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>41218</v>
+        <v>45718</v>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>P+5</t>
+          <t>P+6</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>39418</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>A+6</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>38398</v>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>B+6</t>
-        </is>
-      </c>
-      <c r="E50" t="n">
-        <v>40198</v>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>M+6</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>34783</v>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>N+6</t>
-        </is>
-      </c>
-      <c r="K50" t="n">
-        <v>34918</v>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>O+6</t>
-        </is>
-      </c>
-      <c r="N50" t="n">
-        <v>45718</v>
-      </c>
-      <c r="P50" t="inlineStr">
-        <is>
-          <t>P+6</t>
-        </is>
-      </c>
-      <c r="Q50" t="n">
         <v>43918</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2020-300 - Calcul cable P2-4-8-12-16-18.xlsm</t>
+        </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2020-300 - Calcul cable P2-4-8-12-16-18.xlsm</t>
+          <t>Circuit</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Lampe 1</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Circuit</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Lampe 1</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Circuit</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Lampe 1</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Circuit</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Lampe 1</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>Circuit</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>Lampe 1</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>Circuit</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>Lampe 1</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Circuit</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Lampe 1</t>
-        </is>
+          <t>A+6</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>38398</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Circuit</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>Lampe 1</t>
-        </is>
+          <t>B+6</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>40198</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Circuit</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>Lampe 1</t>
-        </is>
+          <t>C+6</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>34809</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Circuit</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>Lampe 1</t>
-        </is>
+          <t>D+6</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>34896</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>Circuit</t>
-        </is>
-      </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>Lampe 1</t>
-        </is>
+          <t>E+6</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
+        <v>40296</v>
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Circuit</t>
-        </is>
-      </c>
-      <c r="Q55" t="inlineStr">
-        <is>
-          <t>Lampe 1</t>
-        </is>
+          <t>F+6</t>
+        </is>
+      </c>
+      <c r="Q55" t="n">
+        <v>38496</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A+6</t>
+          <t>A+5</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>38398</v>
+        <v>33898</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>B+6</t>
+          <t>B+5</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>40198</v>
+        <v>35698</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>C+6</t>
+          <t>C+5</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>34809</v>
+        <v>30309</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>D+6</t>
+          <t>D+5</t>
         </is>
       </c>
       <c r="K56" t="n">
-        <v>34896</v>
+        <v>30396</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>E+6</t>
+          <t>E+5</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>38496</v>
+        <v>35796</v>
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>F+6</t>
+          <t>F+5</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>40296</v>
+        <v>33996</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A+5</t>
+          <t>A+4</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>33898</v>
+        <v>29398</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>B+5</t>
+          <t>B+4</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>35698</v>
+        <v>31198</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>C+5</t>
+          <t>C+4</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>30309</v>
+        <v>25809</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>D+5</t>
+          <t>D+4</t>
         </is>
       </c>
       <c r="K57" t="n">
-        <v>30396</v>
+        <v>25896</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>E+5</t>
+          <t>E+4</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>33996</v>
+        <v>31296</v>
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>F+5</t>
+          <t>F+4</t>
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>35796</v>
+        <v>29496</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A+4</t>
+          <t>A+3</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>29398</v>
+        <v>24898</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>B+4</t>
+          <t>B+3</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>31198</v>
+        <v>26698</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>C+4</t>
+          <t>C+3</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>25809</v>
+        <v>21309</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>D+4</t>
+          <t>D+3</t>
         </is>
       </c>
       <c r="K58" t="n">
-        <v>25896</v>
+        <v>21396</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>E+4</t>
+          <t>E+3</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>29496</v>
+        <v>26796</v>
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>F+4</t>
+          <t>F+3</t>
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>31296</v>
+        <v>24996</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A+3</t>
+          <t>A+2</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>24898</v>
+        <v>20398</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>B+3</t>
+          <t>B+2</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>26698</v>
+        <v>22198</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>C+3</t>
+          <t>C+2</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>21309</v>
+        <v>16809</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>D+3</t>
+          <t>D+2</t>
         </is>
       </c>
       <c r="K59" t="n">
-        <v>21396</v>
+        <v>16896</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>E+3</t>
+          <t>E+2</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>24996</v>
+        <v>22296</v>
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>F+3</t>
+          <t>F+2</t>
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>26796</v>
+        <v>20496</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A+2</t>
+          <t>A+1</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>20398</v>
+        <v>15898</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>B+2</t>
+          <t>B+1</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>22198</v>
+        <v>17698</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>C+2</t>
+          <t>C+1</t>
         </is>
       </c>
       <c r="H60" t="n">
-        <v>16809</v>
+        <v>12309</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>D+2</t>
+          <t>D+1</t>
         </is>
       </c>
       <c r="K60" t="n">
-        <v>16896</v>
+        <v>12396</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>E+2</t>
+          <t>E+1</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>20496</v>
+        <v>17796</v>
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>F+2</t>
+          <t>F+1</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>22296</v>
+        <v>15996</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A+1</t>
+          <t>A+0</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>15898</v>
+        <v>11398</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>B+1</t>
+          <t>B+0</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>17698</v>
+        <v>13198</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>C+1</t>
+          <t>C+0</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>12309</v>
+        <v>7809</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>D+1</t>
+          <t>D+0</t>
         </is>
       </c>
       <c r="K61" t="n">
-        <v>12396</v>
+        <v>7896</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>E+1</t>
+          <t>E+0</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>15996</v>
+        <v>13296</v>
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>F+1</t>
+          <t>F+0</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>17796</v>
+        <v>11496</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A+0</t>
+          <t>A+1</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>11398</v>
+        <v>15898</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>B+0</t>
+          <t>B+1</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>13198</v>
+        <v>17698</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>C+0</t>
+          <t>C+1</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>7809</v>
+        <v>12309</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>D+0</t>
+          <t>D+1</t>
         </is>
       </c>
       <c r="K62" t="n">
-        <v>7896</v>
+        <v>12396</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>E+0</t>
+          <t>E+1</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>11496</v>
+        <v>17796</v>
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>F+0</t>
+          <t>F+1</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>13296</v>
+        <v>15996</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A+1</t>
+          <t>A+2</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>15898</v>
+        <v>20398</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>B+1</t>
+          <t>B+2</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>17698</v>
+        <v>22198</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>C+1</t>
+          <t>C+2</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>12309</v>
+        <v>16809</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>D+1</t>
+          <t>D+2</t>
         </is>
       </c>
       <c r="K63" t="n">
-        <v>12396</v>
+        <v>16896</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>E+1</t>
+          <t>E+2</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>15996</v>
+        <v>22296</v>
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>F+1</t>
+          <t>F+2</t>
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>17796</v>
+        <v>20496</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A+2</t>
+          <t>A+3</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>20398</v>
+        <v>24898</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>B+2</t>
+          <t>B+3</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>22198</v>
+        <v>26698</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>C+2</t>
+          <t>C+3</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>16809</v>
+        <v>21309</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>D+2</t>
+          <t>D+3</t>
         </is>
       </c>
       <c r="K64" t="n">
-        <v>16896</v>
+        <v>21396</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>E+2</t>
+          <t>E+3</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>20496</v>
+        <v>26796</v>
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>F+2</t>
+          <t>F+3</t>
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>22296</v>
+        <v>24996</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A+3</t>
+          <t>A+4</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>24898</v>
+        <v>29398</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>B+3</t>
+          <t>B+4</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>26698</v>
+        <v>31198</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>C+3</t>
+          <t>C+4</t>
         </is>
       </c>
       <c r="H65" t="n">
-        <v>21309</v>
+        <v>25809</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>D+3</t>
+          <t>D+4</t>
         </is>
       </c>
       <c r="K65" t="n">
-        <v>21396</v>
+        <v>25896</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>E+3</t>
+          <t>E+4</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>24996</v>
+        <v>31296</v>
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>F+3</t>
+          <t>F+4</t>
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>26796</v>
+        <v>29496</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A+4</t>
+          <t>A+5</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>29398</v>
+        <v>33898</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>B+4</t>
+          <t>B+5</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>31198</v>
+        <v>35698</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>C+4</t>
+          <t>C+5</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>25809</v>
+        <v>30309</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>D+4</t>
+          <t>D+5</t>
         </is>
       </c>
       <c r="K66" t="n">
-        <v>25896</v>
+        <v>30396</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>E+4</t>
+          <t>E+5</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>29496</v>
+        <v>35796</v>
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>F+4</t>
+          <t>F+5</t>
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>31296</v>
+        <v>33996</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A+5</t>
+          <t>A+6</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>33898</v>
+        <v>38398</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>B+5</t>
+          <t>B+6</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>35698</v>
+        <v>40198</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>C+5</t>
+          <t>C+6</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>30309</v>
+        <v>34809</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>D+5</t>
+          <t>D+6</t>
         </is>
       </c>
       <c r="K67" t="n">
-        <v>30396</v>
+        <v>34896</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>E+5</t>
+          <t>E+6</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>33996</v>
+        <v>40296</v>
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>F+5</t>
+          <t>F+6</t>
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>35796</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>A+6</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>38398</v>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>B+6</t>
-        </is>
-      </c>
-      <c r="E68" t="n">
-        <v>40198</v>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>C+6</t>
-        </is>
-      </c>
-      <c r="H68" t="n">
-        <v>34809</v>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>D+6</t>
-        </is>
-      </c>
-      <c r="K68" t="n">
-        <v>34896</v>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>E+6</t>
-        </is>
-      </c>
-      <c r="N68" t="n">
         <v>38496</v>
       </c>
-      <c r="P68" t="inlineStr">
-        <is>
-          <t>F+6</t>
-        </is>
-      </c>
-      <c r="Q68" t="n">
-        <v>40296</v>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2020-300 - Calcul cable P5.xlsm</t>
+        </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2020-300 - Calcul cable P5.xlsm</t>
+          <t>Circuit</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Lampe 1</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Circuit</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Lampe 1</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Circuit</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Lampe 1</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>Circuit</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>Lampe 1</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>Circuit</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>Lampe 1</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>Circuit</t>
+        </is>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>Lampe 1</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Circuit</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Lampe 1</t>
-        </is>
+          <t>E+6</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>40296</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Circuit</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>Lampe 1</t>
-        </is>
+          <t>F+6</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>38496</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Circuit</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>Lampe 1</t>
-        </is>
+          <t>G+6</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>43806</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Circuit</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>Lampe 1</t>
-        </is>
+          <t>H+6</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>45610</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>Circuit</t>
-        </is>
-      </c>
-      <c r="N73" t="inlineStr">
-        <is>
-          <t>Lampe 1</t>
-        </is>
+          <t>I+6</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
+        <v>34891</v>
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>Circuit</t>
-        </is>
-      </c>
-      <c r="Q73" t="inlineStr">
-        <is>
-          <t>Lampe 1</t>
-        </is>
+          <t>J+6</t>
+        </is>
+      </c>
+      <c r="Q73" t="n">
+        <v>34810</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>E+6</t>
+          <t>E+5</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>38496</v>
+        <v>35796</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>F+6</t>
+          <t>F+5</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>40296</v>
+        <v>33996</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>G+6</t>
+          <t>G+5</t>
         </is>
       </c>
       <c r="H74" t="n">
-        <v>43806</v>
+        <v>39306</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>H+6</t>
+          <t>H+5</t>
         </is>
       </c>
       <c r="K74" t="n">
-        <v>45610</v>
+        <v>41110</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>I+6</t>
+          <t>I+5</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>34891</v>
+        <v>30391</v>
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>J+6</t>
+          <t>J+5</t>
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>34810</v>
+        <v>30310</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>E+5</t>
+          <t>E+4</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>33996</v>
+        <v>31296</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>F+5</t>
+          <t>F+4</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>35796</v>
+        <v>29496</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>G+5</t>
+          <t>G+4</t>
         </is>
       </c>
       <c r="H75" t="n">
-        <v>39306</v>
+        <v>34806</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>H+5</t>
+          <t>H+4</t>
         </is>
       </c>
       <c r="K75" t="n">
-        <v>41110</v>
+        <v>36610</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>I+5</t>
+          <t>I+4</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>30391</v>
+        <v>25891</v>
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>J+5</t>
+          <t>J+4</t>
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>30310</v>
+        <v>25810</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>E+4</t>
+          <t>E+3</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>29496</v>
+        <v>26796</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>F+4</t>
+          <t>F+3</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>31296</v>
+        <v>24996</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>G+4</t>
+          <t>G+3</t>
         </is>
       </c>
       <c r="H76" t="n">
-        <v>34806</v>
+        <v>30306</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>H+4</t>
+          <t>H+3</t>
         </is>
       </c>
       <c r="K76" t="n">
-        <v>36610</v>
+        <v>32110</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>I+4</t>
+          <t>I+3</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>25891</v>
+        <v>21391</v>
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>J+4</t>
+          <t>J+3</t>
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>25810</v>
+        <v>21310</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>E+3</t>
+          <t>E+2</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>24996</v>
+        <v>22296</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>F+3</t>
+          <t>F+2</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>26796</v>
+        <v>20496</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>G+3</t>
+          <t>G+2</t>
         </is>
       </c>
       <c r="H77" t="n">
-        <v>30306</v>
+        <v>25806</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>H+3</t>
+          <t>H+2</t>
         </is>
       </c>
       <c r="K77" t="n">
-        <v>32110</v>
+        <v>27610</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>I+3</t>
+          <t>I+2</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>21391</v>
+        <v>16891</v>
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>J+3</t>
+          <t>J+2</t>
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>21310</v>
+        <v>16810</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>E+2</t>
+          <t>E+1</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>20496</v>
+        <v>17796</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>F+2</t>
+          <t>F+1</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>22296</v>
+        <v>15996</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>G+2</t>
+          <t>G+1</t>
         </is>
       </c>
       <c r="H78" t="n">
-        <v>25806</v>
+        <v>21306</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>H+2</t>
+          <t>H+1</t>
         </is>
       </c>
       <c r="K78" t="n">
-        <v>27610</v>
+        <v>23110</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>I+2</t>
+          <t>I+1</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>16891</v>
+        <v>12391</v>
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>J+2</t>
+          <t>J+1</t>
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>16810</v>
+        <v>12310</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>E+1</t>
+          <t>E+0</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>15996</v>
+        <v>13296</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>F+1</t>
+          <t>F+0</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>17796</v>
+        <v>11496</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>G+1</t>
+          <t>G+0</t>
         </is>
       </c>
       <c r="H79" t="n">
-        <v>21306</v>
+        <v>16806</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>H+1</t>
+          <t>H+0</t>
         </is>
       </c>
       <c r="K79" t="n">
-        <v>23110</v>
+        <v>18610</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>I+1</t>
+          <t>I+0</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>12391</v>
+        <v>7891</v>
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>J+1</t>
+          <t>J+0</t>
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>12310</v>
+        <v>7810</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>E+0</t>
+          <t>E+1</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>11496</v>
+        <v>17796</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>F+0</t>
+          <t>F+1</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>13296</v>
+        <v>15996</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>G+0</t>
+          <t>G+1</t>
         </is>
       </c>
       <c r="H80" t="n">
-        <v>16806</v>
+        <v>21306</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>H+0</t>
+          <t>H+1</t>
         </is>
       </c>
       <c r="K80" t="n">
-        <v>18610</v>
+        <v>23110</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>I+0</t>
+          <t>I+1</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>7891</v>
+        <v>12391</v>
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>J+0</t>
+          <t>J+1</t>
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>7810</v>
+        <v>12310</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>E+1</t>
+          <t>E+2</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>15996</v>
+        <v>22296</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>F+1</t>
+          <t>F+2</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>17796</v>
+        <v>20496</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>G+1</t>
+          <t>G+2</t>
         </is>
       </c>
       <c r="H81" t="n">
-        <v>21306</v>
+        <v>25806</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>H+1</t>
+          <t>H+2</t>
         </is>
       </c>
       <c r="K81" t="n">
-        <v>23110</v>
+        <v>27610</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>I+1</t>
+          <t>I+2</t>
         </is>
       </c>
       <c r="N81" t="n">
-        <v>12391</v>
+        <v>16891</v>
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>J+1</t>
+          <t>J+2</t>
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>12310</v>
+        <v>16810</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>E+2</t>
+          <t>E+3</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>20496</v>
+        <v>26796</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>F+2</t>
+          <t>F+3</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>22296</v>
+        <v>24996</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>G+2</t>
+          <t>G+3</t>
         </is>
       </c>
       <c r="H82" t="n">
-        <v>25806</v>
+        <v>30306</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>H+2</t>
+          <t>H+3</t>
         </is>
       </c>
       <c r="K82" t="n">
-        <v>27610</v>
+        <v>32110</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>I+2</t>
+          <t>I+3</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>16891</v>
+        <v>21391</v>
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>J+2</t>
+          <t>J+3</t>
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>16810</v>
+        <v>21310</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>E+3</t>
+          <t>E+4</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>24996</v>
+        <v>31296</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>F+3</t>
+          <t>F+4</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>26796</v>
+        <v>29496</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>G+3</t>
+          <t>G+4</t>
         </is>
       </c>
       <c r="H83" t="n">
-        <v>30306</v>
+        <v>34806</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>H+3</t>
+          <t>H+4</t>
         </is>
       </c>
       <c r="K83" t="n">
-        <v>32110</v>
+        <v>36610</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>I+3</t>
+          <t>I+4</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>21391</v>
+        <v>25891</v>
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>J+3</t>
+          <t>J+4</t>
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>21310</v>
+        <v>25810</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>E+4</t>
+          <t>E+5</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>29496</v>
+        <v>35796</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>F+4</t>
+          <t>F+5</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>31296</v>
+        <v>33996</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>G+4</t>
+          <t>G+5</t>
         </is>
       </c>
       <c r="H84" t="n">
-        <v>34806</v>
+        <v>39306</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>H+4</t>
+          <t>H+5</t>
         </is>
       </c>
       <c r="K84" t="n">
-        <v>36610</v>
+        <v>41110</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>I+4</t>
+          <t>I+5</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>25891</v>
+        <v>30391</v>
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>J+4</t>
+          <t>J+5</t>
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>25810</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>E+5</t>
-        </is>
-      </c>
-      <c r="B85" t="n">
-        <v>33996</v>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>F+5</t>
-        </is>
-      </c>
-      <c r="E85" t="n">
-        <v>35796</v>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>G+5</t>
-        </is>
-      </c>
-      <c r="H85" t="n">
-        <v>39306</v>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>H+5</t>
-        </is>
-      </c>
-      <c r="K85" t="n">
-        <v>41110</v>
-      </c>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>I+5</t>
-        </is>
-      </c>
-      <c r="N85" t="n">
-        <v>30391</v>
-      </c>
-      <c r="P85" t="inlineStr">
-        <is>
-          <t>J+5</t>
-        </is>
-      </c>
-      <c r="Q85" t="n">
         <v>30310</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2020-300 - Calcul cable P6.xlsm</t>
+        </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2020-300 - Calcul cable P6.xlsm</t>
+          <t>Circuit</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Lampe 1</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Circuit</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Lampe 1</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Circuit</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Lampe 1</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>Circuit</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>Lampe 1</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>Circuit</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>Lampe 1</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>Circuit</t>
+        </is>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>Lampe 1</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Circuit</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>Lampe 1</t>
-        </is>
+          <t>E+6</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>40296</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Circuit</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>Lampe 1</t>
-        </is>
+          <t>F+6</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>38496</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Circuit</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>Lampe 1</t>
-        </is>
+          <t>G+6</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>43806</v>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Circuit</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>Lampe 1</t>
-        </is>
+          <t>H+6</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>45610</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>Circuit</t>
-        </is>
-      </c>
-      <c r="N90" t="inlineStr">
-        <is>
-          <t>Lampe 1</t>
-        </is>
+          <t>I+6</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
+        <v>34891</v>
       </c>
       <c r="P90" t="inlineStr">
         <is>
-          <t>Circuit</t>
-        </is>
-      </c>
-      <c r="Q90" t="inlineStr">
-        <is>
-          <t>Lampe 1</t>
-        </is>
+          <t>J+6</t>
+        </is>
+      </c>
+      <c r="Q90" t="n">
+        <v>34810</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>E+6</t>
+          <t>E+5</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>38496</v>
+        <v>35796</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>F+6</t>
+          <t>F+5</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>40296</v>
+        <v>33996</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>G+6</t>
+          <t>G+5</t>
         </is>
       </c>
       <c r="H91" t="n">
-        <v>43806</v>
+        <v>39306</v>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>H+6</t>
+          <t>H+5</t>
         </is>
       </c>
       <c r="K91" t="n">
-        <v>45610</v>
+        <v>41110</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>I+6</t>
+          <t>I+5</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>34891</v>
+        <v>30391</v>
       </c>
       <c r="P91" t="inlineStr">
         <is>
-          <t>J+6</t>
+          <t>J+5</t>
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>34810</v>
+        <v>30310</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>E+5</t>
+          <t>E+4</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>33996</v>
+        <v>31296</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>F+5</t>
+          <t>F+4</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>35796</v>
+        <v>29496</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>G+5</t>
+          <t>G+4</t>
         </is>
       </c>
       <c r="H92" t="n">
-        <v>39306</v>
+        <v>34806</v>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>H+5</t>
+          <t>H+4</t>
         </is>
       </c>
       <c r="K92" t="n">
-        <v>41110</v>
+        <v>36610</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>I+5</t>
+          <t>I+4</t>
         </is>
       </c>
       <c r="N92" t="n">
-        <v>30391</v>
+        <v>25891</v>
       </c>
       <c r="P92" t="inlineStr">
         <is>
-          <t>J+5</t>
+          <t>J+4</t>
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>30310</v>
+        <v>25810</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>E+4</t>
+          <t>E+3</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>29496</v>
+        <v>26796</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>F+4</t>
+          <t>F+3</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>31296</v>
+        <v>24996</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>G+4</t>
+          <t>G+3</t>
         </is>
       </c>
       <c r="H93" t="n">
-        <v>34806</v>
+        <v>30306</v>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>H+4</t>
+          <t>H+3</t>
         </is>
       </c>
       <c r="K93" t="n">
-        <v>36610</v>
+        <v>32110</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>I+4</t>
+          <t>I+3</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>25891</v>
+        <v>21391</v>
       </c>
       <c r="P93" t="inlineStr">
         <is>
-          <t>J+4</t>
+          <t>J+3</t>
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>25810</v>
+        <v>21310</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>E+3</t>
+          <t>E+2</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>24996</v>
+        <v>22296</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>F+3</t>
+          <t>F+2</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>26796</v>
+        <v>20496</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>G+3</t>
+          <t>G+2</t>
         </is>
       </c>
       <c r="H94" t="n">
-        <v>30306</v>
+        <v>25806</v>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>H+3</t>
+          <t>H+2</t>
         </is>
       </c>
       <c r="K94" t="n">
-        <v>32110</v>
+        <v>27610</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>I+3</t>
+          <t>I+2</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>21391</v>
+        <v>16891</v>
       </c>
       <c r="P94" t="inlineStr">
         <is>
-          <t>J+3</t>
+          <t>J+2</t>
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>21310</v>
+        <v>16810</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>E+2</t>
+          <t>E+1</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>20496</v>
+        <v>17796</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>F+2</t>
+          <t>F+1</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>22296</v>
+        <v>15996</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>G+2</t>
+          <t>G+1</t>
         </is>
       </c>
       <c r="H95" t="n">
-        <v>25806</v>
+        <v>21306</v>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>H+2</t>
+          <t>H+1</t>
         </is>
       </c>
       <c r="K95" t="n">
-        <v>27610</v>
+        <v>23110</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>I+2</t>
+          <t>I+1</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>16891</v>
+        <v>12391</v>
       </c>
       <c r="P95" t="inlineStr">
         <is>
-          <t>J+2</t>
+          <t>J+1</t>
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>16810</v>
+        <v>12310</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>E+1</t>
+          <t>E+0</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>15996</v>
+        <v>13296</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>F+1</t>
+          <t>F+0</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>17796</v>
+        <v>11496</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>G+1</t>
+          <t>G+0</t>
         </is>
       </c>
       <c r="H96" t="n">
-        <v>21306</v>
+        <v>16806</v>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>H+1</t>
+          <t>H+0</t>
         </is>
       </c>
       <c r="K96" t="n">
-        <v>23110</v>
+        <v>18610</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>I+1</t>
+          <t>I+0</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>12391</v>
+        <v>7891</v>
       </c>
       <c r="P96" t="inlineStr">
         <is>
-          <t>J+1</t>
+          <t>J+0</t>
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>12310</v>
+        <v>7810</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>E+0</t>
+          <t>E+1</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>11496</v>
+        <v>17796</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>F+0</t>
+          <t>F+1</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>13296</v>
+        <v>15996</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>G+0</t>
+          <t>G+1</t>
         </is>
       </c>
       <c r="H97" t="n">
-        <v>16806</v>
+        <v>21306</v>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>H+0</t>
+          <t>H+1</t>
         </is>
       </c>
       <c r="K97" t="n">
-        <v>18610</v>
+        <v>23110</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>I+0</t>
+          <t>I+1</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>7891</v>
+        <v>12391</v>
       </c>
       <c r="P97" t="inlineStr">
         <is>
-          <t>J+0</t>
+          <t>J+1</t>
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>7810</v>
+        <v>12310</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>E+1</t>
+          <t>E+2</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>15996</v>
+        <v>22296</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>F+1</t>
+          <t>F+2</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>17796</v>
+        <v>20496</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>G+1</t>
+          <t>G+2</t>
         </is>
       </c>
       <c r="H98" t="n">
-        <v>21306</v>
+        <v>25806</v>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>H+1</t>
+          <t>H+2</t>
         </is>
       </c>
       <c r="K98" t="n">
-        <v>23110</v>
+        <v>27610</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>I+1</t>
+          <t>I+2</t>
         </is>
       </c>
       <c r="N98" t="n">
-        <v>12391</v>
+        <v>16891</v>
       </c>
       <c r="P98" t="inlineStr">
         <is>
-          <t>J+1</t>
+          <t>J+2</t>
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>12310</v>
+        <v>16810</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>E+2</t>
+          <t>E+3</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>20496</v>
+        <v>26796</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>F+2</t>
+          <t>F+3</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>22296</v>
+        <v>24996</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>G+2</t>
+          <t>G+3</t>
         </is>
       </c>
       <c r="H99" t="n">
-        <v>25806</v>
+        <v>30306</v>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>H+2</t>
+          <t>H+3</t>
         </is>
       </c>
       <c r="K99" t="n">
-        <v>27610</v>
+        <v>32110</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>I+2</t>
+          <t>I+3</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>16891</v>
+        <v>21391</v>
       </c>
       <c r="P99" t="inlineStr">
         <is>
-          <t>J+2</t>
+          <t>J+3</t>
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>16810</v>
+        <v>21310</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>E+3</t>
+          <t>E+4</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>24996</v>
+        <v>31296</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>F+3</t>
+          <t>F+4</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>26796</v>
+        <v>29496</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>G+3</t>
+          <t>G+4</t>
         </is>
       </c>
       <c r="H100" t="n">
-        <v>30306</v>
+        <v>34806</v>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>H+3</t>
+          <t>H+4</t>
         </is>
       </c>
       <c r="K100" t="n">
-        <v>32110</v>
+        <v>36610</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>I+3</t>
+          <t>I+4</t>
         </is>
       </c>
       <c r="N100" t="n">
-        <v>21391</v>
+        <v>25891</v>
       </c>
       <c r="P100" t="inlineStr">
         <is>
-          <t>J+3</t>
+          <t>J+4</t>
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>21310</v>
+        <v>25810</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>E+4</t>
+          <t>E+5</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>29496</v>
+        <v>35796</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>F+4</t>
+          <t>F+5</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>31296</v>
+        <v>33996</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>G+4</t>
+          <t>G+5</t>
         </is>
       </c>
       <c r="H101" t="n">
-        <v>34806</v>
+        <v>39306</v>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>H+4</t>
+          <t>H+5</t>
         </is>
       </c>
       <c r="K101" t="n">
-        <v>36610</v>
+        <v>41110</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>I+4</t>
+          <t>I+5</t>
         </is>
       </c>
       <c r="N101" t="n">
-        <v>25891</v>
+        <v>30391</v>
       </c>
       <c r="P101" t="inlineStr">
         <is>
-          <t>J+4</t>
+          <t>J+5</t>
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>25810</v>
+        <v>30310</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>E+5</t>
+          <t>E+6</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>33996</v>
+        <v>40296</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>F+5</t>
+          <t>F+6</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>35796</v>
+        <v>38496</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>G+5</t>
+          <t>G+6</t>
         </is>
       </c>
       <c r="H102" t="n">
-        <v>39306</v>
+        <v>43806</v>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>H+5</t>
+          <t>H+6</t>
         </is>
       </c>
       <c r="K102" t="n">
-        <v>41110</v>
+        <v>45610</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>I+5</t>
+          <t>I+6</t>
         </is>
       </c>
       <c r="N102" t="n">
-        <v>30391</v>
+        <v>34891</v>
       </c>
       <c r="P102" t="inlineStr">
         <is>
-          <t>J+5</t>
+          <t>J+6</t>
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>30310</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>E+6</t>
-        </is>
-      </c>
-      <c r="B103" t="n">
-        <v>38496</v>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>F+6</t>
-        </is>
-      </c>
-      <c r="E103" t="n">
-        <v>40296</v>
-      </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>G+6</t>
-        </is>
-      </c>
-      <c r="H103" t="n">
-        <v>43806</v>
-      </c>
-      <c r="J103" t="inlineStr">
-        <is>
-          <t>H+6</t>
-        </is>
-      </c>
-      <c r="K103" t="n">
-        <v>45610</v>
-      </c>
-      <c r="M103" t="inlineStr">
-        <is>
-          <t>I+6</t>
-        </is>
-      </c>
-      <c r="N103" t="n">
-        <v>34891</v>
-      </c>
-      <c r="P103" t="inlineStr">
-        <is>
-          <t>J+6</t>
-        </is>
-      </c>
-      <c r="Q103" t="n">
         <v>34810</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2020-300 - Calcul cable P9-10.xlsm</t>
+        </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>2020-300 - Calcul cable P9-10.xlsm</t>
+          <t>Circuit</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Boite jonction</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Circuit</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Boite jonction</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Circuit</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>Boite jonction</t>
-        </is>
+          <t>K+12</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>60950</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Circuit</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>Boite jonction</t>
-        </is>
+          <t>L+12</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>60950</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>K+12</t>
+          <t>K+11</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>60950</v>
+        <v>56450</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>L+12</t>
+          <t>L+11</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>60950</v>
+        <v>56450</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>K+11</t>
+          <t>K+10</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>56450</v>
+        <v>51950</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>L+11</t>
+          <t>L+10</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>56450</v>
+        <v>51950</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>K+10</t>
+          <t>K+9</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>51950</v>
+        <v>47450</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>L+10</t>
+          <t>L+9</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>51950</v>
+        <v>47450</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>K+9</t>
+          <t>K+8</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>47450</v>
+        <v>42950</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>L+9</t>
+          <t>L+8</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>47450</v>
+        <v>42950</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>K+8</t>
+          <t>K+7</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>42950</v>
+        <v>38450</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>L+8</t>
+          <t>L+7</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>42950</v>
+        <v>38450</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>K+7</t>
+          <t>K+6</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>38450</v>
+        <v>33950</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>L+7</t>
+          <t>L+6</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>38450</v>
+        <v>33950</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>K+6</t>
+          <t>K+5</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>33950</v>
+        <v>29450</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>L+6</t>
+          <t>L+5</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>33950</v>
+        <v>29450</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>K+5</t>
+          <t>K+4</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>29450</v>
+        <v>24950</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>L+5</t>
+          <t>L+4</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>29450</v>
+        <v>24950</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>K+4</t>
+          <t>K+3</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>24950</v>
+        <v>20450</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>L+4</t>
+          <t>L+3</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>24950</v>
+        <v>20450</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>K+3</t>
+          <t>K+2</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>20450</v>
+        <v>15950</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>L+3</t>
+          <t>L+2</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>20450</v>
+        <v>15950</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>K+2</t>
+          <t>K+1</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>15950</v>
+        <v>11450</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>L+2</t>
+          <t>L+1</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>15950</v>
+        <v>11450</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>K+1</t>
+          <t>K+0</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>11450</v>
+        <v>6950</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>L+1</t>
+          <t>L+0</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>11450</v>
+        <v>6950</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>K+0</t>
+          <t>K+1</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>6950</v>
+        <v>11450</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>L+0</t>
+          <t>L+1</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>6950</v>
+        <v>11450</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>K+1</t>
+          <t>K+2</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>11450</v>
+        <v>15950</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>L+1</t>
+          <t>L+2</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>11450</v>
+        <v>15950</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>K+2</t>
+          <t>K+3</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>15950</v>
+        <v>20450</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>L+2</t>
+          <t>L+3</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>15950</v>
+        <v>20450</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>K+3</t>
+          <t>K+4</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>20450</v>
+        <v>24950</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>L+3</t>
+          <t>L+4</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>20450</v>
+        <v>24950</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>K+4</t>
+          <t>K+5</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>24950</v>
+        <v>29450</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>L+4</t>
+          <t>L+5</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>24950</v>
+        <v>29450</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>K+5</t>
+          <t>K+6</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>29450</v>
+        <v>33950</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>L+5</t>
+          <t>L+6</t>
         </is>
       </c>
       <c r="E126" t="n">
-        <v>29450</v>
+        <v>33950</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>K+6</t>
+          <t>K+7</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>33950</v>
+        <v>38450</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>L+6</t>
+          <t>L+7</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>33950</v>
+        <v>38450</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>K+7</t>
+          <t>K+8</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>38450</v>
+        <v>42950</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>L+7</t>
+          <t>L+8</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>38450</v>
+        <v>42950</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>K+8</t>
+          <t>K+9</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>42950</v>
+        <v>47450</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>L+8</t>
+          <t>L+9</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>42950</v>
+        <v>47450</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>K+9</t>
+          <t>K+10</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>47450</v>
+        <v>51950</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>L+9</t>
+          <t>L+10</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>47450</v>
+        <v>51950</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>K+10</t>
+          <t>K+11</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>51950</v>
+        <v>56450</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>L+10</t>
+          <t>L+11</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>51950</v>
+        <v>56450</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>K+11</t>
+          <t>K+12</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>56450</v>
+        <v>60950</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>L+11</t>
+          <t>L+12</t>
         </is>
       </c>
       <c r="E132" t="n">
-        <v>56450</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>K+12</t>
-        </is>
-      </c>
-      <c r="B133" t="n">
         <v>60950</v>
       </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>L+12</t>
-        </is>
-      </c>
-      <c r="E133" t="n">
-        <v>60950</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>coucou.xlsx</t>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>total modeles python plus.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Total Spécial:</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>total modeles python plus.xlsx</t>
-        </is>
+          <t>Circuit</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Mesure</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Nombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>A+6</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>38398</v>
+      </c>
+      <c r="C168" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>A+5</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>33898</v>
+      </c>
+      <c r="C169" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>A+4</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>29398</v>
+      </c>
+      <c r="C170" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>A+3</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>24898</v>
+      </c>
+      <c r="C171" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>A+2</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>20398</v>
+      </c>
+      <c r="C172" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>A+1</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>15898</v>
+      </c>
+      <c r="C173" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>A+0</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>11398</v>
+      </c>
+      <c r="C174" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>B+6</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>40198</v>
+      </c>
+      <c r="C175" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>B+5</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>35698</v>
+      </c>
+      <c r="C176" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>B+4</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>31198</v>
+      </c>
+      <c r="C177" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>B+3</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>26698</v>
+      </c>
+      <c r="C178" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>B+2</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>22198</v>
+      </c>
+      <c r="C179" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>B+1</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>17698</v>
+      </c>
+      <c r="C180" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>B+0</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>13198</v>
+      </c>
+      <c r="C181" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>C+6</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>34809</v>
+      </c>
+      <c r="C182" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>C+5</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>30309</v>
+      </c>
+      <c r="C183" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>C+4</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>25809</v>
+      </c>
+      <c r="C184" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>C+3</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>21309</v>
+      </c>
+      <c r="C185" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>C+2</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>16809</v>
+      </c>
+      <c r="C186" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>C+1</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>12309</v>
+      </c>
+      <c r="C187" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>C+0</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>7809</v>
+      </c>
+      <c r="C188" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>D+6</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>34896</v>
+      </c>
+      <c r="C189" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>D+5</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>30396</v>
+      </c>
+      <c r="C190" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>D+4</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>25896</v>
+      </c>
+      <c r="C191" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>D+3</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>21396</v>
+      </c>
+      <c r="C192" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>D+2</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>16896</v>
+      </c>
+      <c r="C193" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>D+1</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>12396</v>
+      </c>
+      <c r="C194" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>D+0</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>7896</v>
+      </c>
+      <c r="C195" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>E+6</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>40296</v>
+      </c>
+      <c r="C196" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>E+5</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>35796</v>
+      </c>
+      <c r="C197" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>E+4</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>31296</v>
+      </c>
+      <c r="C198" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>E+3</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>26796</v>
+      </c>
+      <c r="C199" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>E+2</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>22296</v>
+      </c>
+      <c r="C200" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>E+1</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>17796</v>
+      </c>
+      <c r="C201" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>E+0</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>13296</v>
+      </c>
+      <c r="C202" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>F+6</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>38496</v>
+      </c>
+      <c r="C203" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>F+5</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>33996</v>
+      </c>
+      <c r="C204" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>F+4</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>29496</v>
+      </c>
+      <c r="C205" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>F+3</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>24996</v>
+      </c>
+      <c r="C206" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>F+2</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>20496</v>
+      </c>
+      <c r="C207" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>F+1</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>15996</v>
+      </c>
+      <c r="C208" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>F+0</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>11496</v>
+      </c>
+      <c r="C209" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>M+6</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>34783</v>
+      </c>
+      <c r="C210" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>M+5</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>30283</v>
+      </c>
+      <c r="C211" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>M+4</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>25783</v>
+      </c>
+      <c r="C212" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>M+3</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>21283</v>
+      </c>
+      <c r="C213" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>M+2</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>16783</v>
+      </c>
+      <c r="C214" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>M+1</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>12283</v>
+      </c>
+      <c r="C215" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>M+0</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>7783</v>
+      </c>
+      <c r="C216" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>N+6</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>34918</v>
+      </c>
+      <c r="C217" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>N+5</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>30418</v>
+      </c>
+      <c r="C218" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>N+4</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>25918</v>
+      </c>
+      <c r="C219" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>N+3</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>21418</v>
+      </c>
+      <c r="C220" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>N+2</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>16918</v>
+      </c>
+      <c r="C221" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>N+1</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>12418</v>
+      </c>
+      <c r="C222" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>N+0</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>7918</v>
+      </c>
+      <c r="C223" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>O+6</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>45718</v>
+      </c>
+      <c r="C224" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>O+5</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>41218</v>
+      </c>
+      <c r="C225" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>O+4</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>36718</v>
+      </c>
+      <c r="C226" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>O+3</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>32218</v>
+      </c>
+      <c r="C227" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>O+2</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>27718</v>
+      </c>
+      <c r="C228" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>O+1</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>23218</v>
+      </c>
+      <c r="C229" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>O+0</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>18718</v>
+      </c>
+      <c r="C230" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>P+6</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>43918</v>
+      </c>
+      <c r="C231" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>P+5</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>39418</v>
+      </c>
+      <c r="C232" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>P+4</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>34918</v>
+      </c>
+      <c r="C233" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>P+3</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>30418</v>
+      </c>
+      <c r="C234" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>P+2</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>25918</v>
+      </c>
+      <c r="C235" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>P+1</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>21418</v>
+      </c>
+      <c r="C236" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>P+0</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>16918</v>
+      </c>
+      <c r="C237" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>G+6</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>43806</v>
+      </c>
+      <c r="C238" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>G+5</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>39306</v>
+      </c>
+      <c r="C239" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>G+4</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>34806</v>
+      </c>
+      <c r="C240" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>G+3</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>30306</v>
+      </c>
+      <c r="C241" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>G+2</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>25806</v>
+      </c>
+      <c r="C242" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>G+1</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>21306</v>
+      </c>
+      <c r="C243" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>G+0</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>16806</v>
+      </c>
+      <c r="C244" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>H+6</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>45610</v>
+      </c>
+      <c r="C245" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>H+5</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>41110</v>
+      </c>
+      <c r="C246" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>H+4</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>36610</v>
+      </c>
+      <c r="C247" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>H+3</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>32110</v>
+      </c>
+      <c r="C248" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>H+2</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>27610</v>
+      </c>
+      <c r="C249" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>H+1</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>23110</v>
+      </c>
+      <c r="C250" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>H+0</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>18610</v>
+      </c>
+      <c r="C251" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>I+6</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>34891</v>
+      </c>
+      <c r="C252" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>I+5</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>30391</v>
+      </c>
+      <c r="C253" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>I+4</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>25891</v>
+      </c>
+      <c r="C254" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>I+3</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>21391</v>
+      </c>
+      <c r="C255" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>I+2</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>16891</v>
+      </c>
+      <c r="C256" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>I+1</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>12391</v>
+      </c>
+      <c r="C257" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>I+0</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>7891</v>
+      </c>
+      <c r="C258" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>J+6</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>34810</v>
+      </c>
+      <c r="C259" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>J+5</t>
+        </is>
+      </c>
+      <c r="B260" t="n">
+        <v>30310</v>
+      </c>
+      <c r="C260" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>J+4</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
+        <v>25810</v>
+      </c>
+      <c r="C261" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>J+3</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v>21310</v>
+      </c>
+      <c r="C262" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>J+2</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v>16810</v>
+      </c>
+      <c r="C263" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>J+1</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>12310</v>
+      </c>
+      <c r="C264" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>J+0</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>7810</v>
+      </c>
+      <c r="C265" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>K+12</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>60950</v>
+      </c>
+      <c r="C266" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>K+11</t>
+        </is>
+      </c>
+      <c r="B267" t="n">
+        <v>56450</v>
+      </c>
+      <c r="C267" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>K+10</t>
+        </is>
+      </c>
+      <c r="B268" t="n">
+        <v>51950</v>
+      </c>
+      <c r="C268" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>K+9</t>
+        </is>
+      </c>
+      <c r="B269" t="n">
+        <v>47450</v>
+      </c>
+      <c r="C269" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>K+8</t>
+        </is>
+      </c>
+      <c r="B270" t="n">
+        <v>42950</v>
+      </c>
+      <c r="C270" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>K+7</t>
+        </is>
+      </c>
+      <c r="B271" t="n">
+        <v>38450</v>
+      </c>
+      <c r="C271" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>K+6</t>
+        </is>
+      </c>
+      <c r="B272" t="n">
+        <v>33950</v>
+      </c>
+      <c r="C272" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>K+5</t>
+        </is>
+      </c>
+      <c r="B273" t="n">
+        <v>29450</v>
+      </c>
+      <c r="C273" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>K+4</t>
+        </is>
+      </c>
+      <c r="B274" t="n">
+        <v>24950</v>
+      </c>
+      <c r="C274" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>K+3</t>
+        </is>
+      </c>
+      <c r="B275" t="n">
+        <v>20450</v>
+      </c>
+      <c r="C275" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>K+2</t>
+        </is>
+      </c>
+      <c r="B276" t="n">
+        <v>15950</v>
+      </c>
+      <c r="C276" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>K+1</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
+        <v>11450</v>
+      </c>
+      <c r="C277" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>K+0</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
+        <v>6950</v>
+      </c>
+      <c r="C278" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>L+12</t>
+        </is>
+      </c>
+      <c r="B279" t="n">
+        <v>60950</v>
+      </c>
+      <c r="C279" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>L+11</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
+        <v>56450</v>
+      </c>
+      <c r="C280" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>L+10</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
+        <v>51950</v>
+      </c>
+      <c r="C281" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>L+9</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
+        <v>47450</v>
+      </c>
+      <c r="C282" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>L+8</t>
+        </is>
+      </c>
+      <c r="B283" t="n">
+        <v>42950</v>
+      </c>
+      <c r="C283" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>L+7</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
+        <v>38450</v>
+      </c>
+      <c r="C284" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>L+6</t>
+        </is>
+      </c>
+      <c r="B285" t="n">
+        <v>33950</v>
+      </c>
+      <c r="C285" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>L+5</t>
+        </is>
+      </c>
+      <c r="B286" t="n">
+        <v>29450</v>
+      </c>
+      <c r="C286" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>L+4</t>
+        </is>
+      </c>
+      <c r="B287" t="n">
+        <v>24950</v>
+      </c>
+      <c r="C287" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>L+3</t>
+        </is>
+      </c>
+      <c r="B288" t="n">
+        <v>20450</v>
+      </c>
+      <c r="C288" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>L+2</t>
+        </is>
+      </c>
+      <c r="B289" t="n">
+        <v>15950</v>
+      </c>
+      <c r="C289" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>L+1</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>11450</v>
+      </c>
+      <c r="C290" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>L+0</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
+        <v>6950</v>
+      </c>
+      <c r="C291" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
